--- a/Documents/PROJECT - Development Plan - CS521(x) - Group n.xlsx
+++ b/Documents/PROJECT - Development Plan - CS521(x) - Group n.xlsx
@@ -126,9 +126,6 @@
     <t>Planning</t>
   </si>
   <si>
-    <t>Design &amp; Development</t>
-  </si>
-  <si>
     <t>Project Kick-off</t>
   </si>
   <si>
@@ -438,6 +435,10 @@
   </si>
   <si>
     <t>Main Page Server-end Develop</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design &amp; Development</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1055,45 +1056,45 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1414,7 +1415,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25.5">
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="27">
@@ -1439,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E5" s="11">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1456,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -1473,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="11">
         <v>20</v>
@@ -1490,10 +1491,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E8" s="11">
         <v>20</v>
@@ -1507,16 +1508,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="11">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1525,7 +1526,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="11">
         <v>20</v>
@@ -1610,7 +1611,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1626,34 +1627,34 @@
   <sheetData>
     <row r="2" spans="1:13" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" thickBot="1"/>
     <row r="4" spans="1:13" ht="20.25">
-      <c r="A4" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="90" t="s">
+      <c r="A4" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="26"/>
@@ -1675,37 +1676,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="F6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="31" t="s">
+      <c r="K6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>46</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>13</v>
@@ -1730,7 +1731,7 @@
     </row>
     <row r="8" spans="1:13" s="63" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="15"/>
@@ -1816,7 +1817,7 @@
     </row>
     <row r="12" spans="1:13" s="63" customFormat="1">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="14"/>
@@ -1832,8 +1833,8 @@
       <c r="M12" s="42"/>
     </row>
     <row r="13" spans="1:13" s="63" customFormat="1">
-      <c r="A13" s="92" t="s">
-        <v>85</v>
+      <c r="A13" s="81" t="s">
+        <v>84</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="16"/>
@@ -1855,7 +1856,7 @@
       <c r="M13" s="46"/>
     </row>
     <row r="14" spans="1:13" s="63" customFormat="1">
-      <c r="A14" s="92"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="67"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1876,7 +1877,7 @@
       <c r="M14" s="46"/>
     </row>
     <row r="15" spans="1:13" s="63" customFormat="1">
-      <c r="A15" s="92"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="67"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1894,7 +1895,7 @@
       <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:13" s="63" customFormat="1">
-      <c r="A16" s="92"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="67"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1916,7 +1917,7 @@
     </row>
     <row r="17" spans="1:13" s="63" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="12"/>
@@ -1933,7 +1934,7 @@
     </row>
     <row r="18" spans="1:13" s="63" customFormat="1">
       <c r="A18" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="15"/>
@@ -1955,8 +1956,8 @@
       <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13" s="63" customFormat="1">
-      <c r="A19" s="93" t="s">
-        <v>88</v>
+      <c r="A19" s="82" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="65"/>
       <c r="C19" s="15">
@@ -1982,8 +1983,8 @@
       <c r="M19" s="44"/>
     </row>
     <row r="20" spans="1:13" s="63" customFormat="1">
-      <c r="A20" s="93" t="s">
-        <v>89</v>
+      <c r="A20" s="82" t="s">
+        <v>88</v>
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="15">
@@ -2009,8 +2010,8 @@
       <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" s="63" customFormat="1">
-      <c r="A21" s="93" t="s">
-        <v>91</v>
+      <c r="A21" s="82" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="15">
@@ -2036,8 +2037,8 @@
       <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13" s="63" customFormat="1">
-      <c r="A22" s="94" t="s">
-        <v>86</v>
+      <c r="A22" s="83" t="s">
+        <v>85</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="15"/>
@@ -2059,8 +2060,8 @@
       <c r="M22" s="44"/>
     </row>
     <row r="23" spans="1:13" s="63" customFormat="1">
-      <c r="A23" s="93" t="s">
-        <v>87</v>
+      <c r="A23" s="82" t="s">
+        <v>86</v>
       </c>
       <c r="B23" s="65"/>
       <c r="C23" s="15">
@@ -2086,8 +2087,8 @@
       <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13" s="63" customFormat="1">
-      <c r="A24" s="93" t="s">
-        <v>100</v>
+      <c r="A24" s="82" t="s">
+        <v>99</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="15">
@@ -2113,8 +2114,8 @@
       <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13" s="63" customFormat="1">
-      <c r="A25" s="93" t="s">
-        <v>94</v>
+      <c r="A25" s="82" t="s">
+        <v>93</v>
       </c>
       <c r="B25" s="65"/>
       <c r="C25" s="15">
@@ -2140,8 +2141,8 @@
       <c r="M25" s="44"/>
     </row>
     <row r="26" spans="1:13" s="63" customFormat="1">
-      <c r="A26" s="94" t="s">
-        <v>92</v>
+      <c r="A26" s="83" t="s">
+        <v>91</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="15"/>
@@ -2163,8 +2164,8 @@
       <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13" s="63" customFormat="1">
-      <c r="A27" s="93" t="s">
-        <v>93</v>
+      <c r="A27" s="82" t="s">
+        <v>92</v>
       </c>
       <c r="B27" s="65"/>
       <c r="C27" s="15">
@@ -2190,8 +2191,8 @@
       <c r="M27" s="44"/>
     </row>
     <row r="28" spans="1:13" s="63" customFormat="1">
-      <c r="A28" s="93" t="s">
-        <v>99</v>
+      <c r="A28" s="82" t="s">
+        <v>98</v>
       </c>
       <c r="B28" s="65"/>
       <c r="C28" s="15">
@@ -2217,8 +2218,8 @@
       <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13" s="63" customFormat="1">
-      <c r="A29" s="93" t="s">
-        <v>90</v>
+      <c r="A29" s="82" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="65"/>
       <c r="C29" s="15">
@@ -2244,8 +2245,8 @@
       <c r="M29" s="44"/>
     </row>
     <row r="30" spans="1:13" s="63" customFormat="1">
-      <c r="A30" s="94" t="s">
-        <v>83</v>
+      <c r="A30" s="83" t="s">
+        <v>82</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="15"/>
@@ -2267,8 +2268,8 @@
       <c r="M30" s="44"/>
     </row>
     <row r="31" spans="1:13" s="63" customFormat="1">
-      <c r="A31" s="93" t="s">
-        <v>97</v>
+      <c r="A31" s="82" t="s">
+        <v>96</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="15">
@@ -2294,8 +2295,8 @@
       <c r="M31" s="44"/>
     </row>
     <row r="32" spans="1:13" s="63" customFormat="1">
-      <c r="A32" s="93" t="s">
-        <v>98</v>
+      <c r="A32" s="82" t="s">
+        <v>97</v>
       </c>
       <c r="B32" s="65"/>
       <c r="C32" s="15">
@@ -2321,8 +2322,8 @@
       <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:13" s="63" customFormat="1">
-      <c r="A33" s="93" t="s">
-        <v>90</v>
+      <c r="A33" s="82" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="15">
@@ -2349,7 +2350,7 @@
     </row>
     <row r="34" spans="1:13" s="63" customFormat="1">
       <c r="A34" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="14"/>
@@ -2464,27 +2465,27 @@
       <c r="M39" s="58"/>
     </row>
     <row r="40" spans="1:13" s="63" customFormat="1">
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="91"/>
+      <c r="F40" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="86"/>
+      <c r="G40" s="89"/>
     </row>
     <row r="41" spans="1:13" s="63" customFormat="1">
       <c r="D41" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="60" t="s">
-        <v>53</v>
-      </c>
       <c r="G41" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="63" customFormat="1" ht="14.25" thickBot="1">
@@ -2538,7 +2539,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25.5">
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -2561,7 +2562,7 @@
     <row r="5" spans="2:6">
       <c r="B5" s="18"/>
       <c r="C5" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2603,7 +2604,7 @@
     <row r="9" spans="2:6">
       <c r="B9" s="18"/>
       <c r="C9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -2684,7 +2685,7 @@
     <row r="18" spans="2:6">
       <c r="B18" s="9"/>
       <c r="C18" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -2762,7 +2763,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="25.5">
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -2959,39 +2960,39 @@
   <sheetData>
     <row r="3" spans="2:17" ht="25.5">
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="C5" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91" t="s">
+      <c r="C5" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91" t="s">
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91" t="s">
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>20</v>
@@ -3000,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>20</v>
@@ -3009,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="79" t="s">
         <v>20</v>
@@ -3018,7 +3019,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" s="79" t="s">
         <v>20</v>
@@ -3027,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="79" t="s">
         <v>20</v>
@@ -3036,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="Q6" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:17">
